--- a/results/data/CG2.2.xlsx
+++ b/results/data/CG2.2.xlsx
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>149779.8560000001</v>
+        <v>149779.856</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1396251.162999998</v>
+        <v>1396523.246999999</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CG2.2.xlsx
+++ b/results/data/CG2.2.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1748774.354999998</v>
+        <v>1704333.763999997</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>149779.856</v>
+        <v>144931.216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1396523.246999999</v>
+        <v>1377571.700999999</v>
       </c>
     </row>
   </sheetData>
